--- a/src/app/data/input/PreparaciónRimac/PagosVencidos - 2025-12-03T112557.336_RIMAC.xlsx
+++ b/src/app/data/input/PreparaciónRimac/PagosVencidos - 2025-12-03T112557.336_RIMAC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PagosVencidos" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,13 +17,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,12 +42,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,9 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -471,22 +494,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>RESPONSABLE DE PAGO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>NRO. POLIZA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>CATEGORÍA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>VENCIMIENTO</t>
         </is>
@@ -737,17 +760,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DIGITAL BUSINESS PERU S.A.C.</t>
+          <t>GESTION A1 S.A.C. - GA1 S.A.C.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>67289811</t>
+          <t>E0033183</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>VIDA LEY D.L. 688</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -759,17 +782,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GESTION A1 S.A.C. - GA1 S.A.C.</t>
+          <t>DIGITAL BUSINESS PERU S.A.C.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>E0033183</t>
+          <t>67289811</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>VIDA LEY D.L. 688</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1001,12 +1024,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>XIAOMI RETAIL PERU S.A.C.</t>
+          <t>FIMA CORP. S.A.C.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1300638450</t>
+          <t>1300638170</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1023,12 +1046,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FIMA CORP. S.A.C.</t>
+          <t>XIAOMI RETAIL PERU S.A.C.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1300638170</t>
+          <t>1300638450</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1067,17 +1090,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SENCINET LATAM PERU S.A.C.</t>
+          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>P0278988</t>
+          <t>54305</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>S.C.T.R. - PENSION</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1094,7 +1117,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>52231</t>
+          <t>54626</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1116,7 +1139,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>54293</t>
+          <t>54610</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1133,17 +1156,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
+          <t>SENCINET LATAM PERU S.A.C.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>52285</t>
+          <t>P0278988</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>S.C.T.R. - PENSION</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1155,17 +1178,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
+          <t>SENCINET LATAM PERU S.A.C.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>52226</t>
+          <t>S0336735</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>S.C.T.R. - SALUD</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1182,7 +1205,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>54305</t>
+          <t>52226</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1199,17 +1222,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
+          <t>FUKUNAGA MENDOZA LUIS MARTIN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>54610</t>
+          <t>1573588</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1226,7 +1249,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>54317</t>
+          <t>52231</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1243,17 +1266,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SENCINET LATAM PERU S.A.C.</t>
+          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S0336735</t>
+          <t>52285</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>S.C.T.R. - SALUD</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1270,7 +1293,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>54626</t>
+          <t>54317</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1287,17 +1310,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FUKUNAGA MENDOZA LUIS MARTIN</t>
+          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1573588</t>
+          <t>54293</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1353,17 +1376,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PICKMAN SANCHEZ ENA DENISSE</t>
+          <t>LABORATORIO FARMACEUTICO SAN JOAQUIN-ROXFARMA SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1563417</t>
+          <t>E0020619</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1375,17 +1398,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ACRES FINANCE S.A.</t>
+          <t>PICKMAN SANCHEZ ENA DENISSE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>E0004928</t>
+          <t>1563417</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1397,12 +1420,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ACRES SOCIEDAD TITULIZADORA S.A.</t>
+          <t>ACRES FINANCE S.A.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>E0020911</t>
+          <t>E0004928</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1441,17 +1464,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
+          <t>ACRES SOCIEDAD TITULIZADORA S.A.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1300641243</t>
+          <t>E0020911</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VIDALEYRE</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1485,17 +1508,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LABORATORIO FARMACEUTICO SAN JOAQUIN-ROXFARMA SOCIEDAD ANONIMA</t>
+          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>E0020619</t>
+          <t>1300641243</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>VIDALEYRE</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1507,17 +1530,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
+          <t>OROSCO NUÑEZ JOHN MARCELINO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>54654</t>
+          <t>1573568</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1529,17 +1552,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>OROSCO NUÑEZ JOHN MARCELINO</t>
+          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1573568</t>
+          <t>54654</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1595,17 +1618,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LOPEZ VALVERDE WILDO GILBERTO</t>
+          <t>UNILEVER ANDINA PERU S.A.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1414886</t>
+          <t>00264667</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>VIDA LEY 2DA CAPA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1617,17 +1640,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>UNILEVER ANDINA PERU S.A.</t>
+          <t>LOPEZ VALVERDE WILDO GILBERTO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>00264667</t>
+          <t>1414886</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>VIDA LEY 2DA CAPA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1639,17 +1662,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TRANSPORTES  DALMA  S.A.C</t>
+          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1595591</t>
+          <t>54307</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1661,17 +1684,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BALTAZAR Y NICOLAS ASOCIACIÓN CIVIL SIN FINES DE LUCRO</t>
+          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1300649048</t>
+          <t>54649</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>VIDALEYRE</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1705,17 +1728,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLMARTOUR S A</t>
+          <t>TRANSPORTES  DALMA  S.A.C</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>E0002616</t>
+          <t>1595591</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1727,17 +1750,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
+          <t>SOLMARTOUR S A</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>54649</t>
+          <t>E0002616</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1749,17 +1772,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
+          <t>BALTAZAR Y NICOLAS ASOCIACIÓN CIVIL SIN FINES DE LUCRO</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>54307</t>
+          <t>1300649048</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>VIDALEYRE</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1859,17 +1882,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VALVERDE VALVERDE ALEXANDER GUILLERMO</t>
+          <t>GARNIQUE SANCHEZ DANNY IVAN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>1509990</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ONCO. INTEGRAL INDIVIDUAL BROKERS</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1881,17 +1904,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GARNIQUE SANCHEZ DANNY IVAN</t>
+          <t>VALVERDE VALVERDE ALEXANDER GUILLERMO</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1509990</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>ONCO. INTEGRAL INDIVIDUAL BROKERS</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1947,12 +1970,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>QUIROGA MENDOZA HOMERO</t>
+          <t>PGZU SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA - PGZU SRL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1574721</t>
+          <t>1573433</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1969,12 +1992,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PGZU SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA - PGZU SRL</t>
+          <t>QUIROGA MENDOZA HOMERO</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1573433</t>
+          <t>1574721</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2013,17 +2036,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CASTRO SANTILLAN MANUEL AUGUSTO</t>
+          <t>VIDAL HUAMAN MARCO ANTONIO</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>501082</t>
+          <t>1472894</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ACCIDENTES SEGURO VIDA B</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2035,17 +2058,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>VIDAL HUAMAN MARCO ANTONIO</t>
+          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1472894</t>
+          <t>52341</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2057,17 +2080,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
+          <t>CASTRO SANTILLAN MANUEL AUGUSTO</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>52341</t>
+          <t>501082</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>ACCIDENTES SEGURO VIDA B</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2079,17 +2102,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>FREIRE GANOZA ANA MARIELLA FELICIA</t>
+          <t>CALDERON LOPEZ MIGUEL ANTONIO</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>61443</t>
+          <t>9632</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>SALUD DE ORO</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2101,17 +2124,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CALDERON LOPEZ MIGUEL ANTONIO</t>
+          <t>FREIRE GANOZA ANA MARIELLA FELICIA</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9632</t>
+          <t>61443</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SALUD DE ORO</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2189,12 +2212,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CASTILLO GONZALEZ FRANCISCO JAVIER</t>
+          <t>LININGS S.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1573560</t>
+          <t>1581063</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2211,12 +2234,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LININGS S.A.</t>
+          <t>CASTILLO GONZALEZ FRANCISCO JAVIER</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1581063</t>
+          <t>1573560</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2255,12 +2278,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CALDERON MENDOZA NANCY VANESSA</t>
+          <t>ESTCOLD PERUANA S.A.C</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1454542</t>
+          <t>1546062</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2299,12 +2322,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ESTCOLD PERUANA S.A.C</t>
+          <t>CALDERON MENDOZA NANCY VANESSA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1546062</t>
+          <t>1454542</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2365,17 +2388,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BENDEZU MESCUA MELISSA</t>
+          <t>XIAOMI RETAIL PERU S.A.C.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>39658</t>
+          <t>49445</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2387,17 +2410,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>XIAOMI RETAIL PERU S.A.C.</t>
+          <t>BENDEZU MESCUA MELISSA</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>49445</t>
+          <t>39658</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2475,17 +2498,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NEUHAUS WIESE RODOLFO FERNANDO</t>
+          <t>FARRO MANRIQUE ELMER MIGUEL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>76561</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>SALUD DE ORO</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2497,17 +2520,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ALBUJAR CAMACHO JUAN CARLOS FERNANDO</t>
+          <t>FIMA S.A.C.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>90476</t>
+          <t>1300401814</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>VIDA LEY D.L. 688</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2519,17 +2542,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>WALTERSDORFER RIVERA FRANCISCO JOSE</t>
+          <t>GRAÑA ACUÑA ANDRES AGUSTIN</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>73745</t>
+          <t>2780</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>SALUD DE ORO F F V V</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2541,17 +2564,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ALBUJAR CAMACHO JUAN CARLOS FERNANDO</t>
+          <t>PASTOR MATTA DE ACEVEDO CARMEN ROSA</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>62044</t>
+          <t>4018003390</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>ONCOLÓGICO RIMAC</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2563,17 +2586,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BORJA MEJIA EDWARD</t>
+          <t>KAUFMANN PARDO PAUL PETER</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>55748</t>
+          <t>40022</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>SALUD PREFERENCIAL</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2585,17 +2608,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MONTERO GRAÑA MARIA LUZ</t>
+          <t>HUANACUNE VARGAS JOAQUIN ENRIQUE</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>527422</t>
+          <t>1596992</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2607,17 +2630,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PASTOR MATTA DE ACEVEDO CARMEN ROSA</t>
+          <t>ISLA HERRERA HARRY</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4018003390</t>
+          <t>1586323</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ONCOLÓGICO RIMAC</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2629,17 +2652,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TEGA INDUSTRIES PERU S.A.C.</t>
+          <t>MONTERO GRAÑA MARIA LUZ</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>E0034025</t>
+          <t>527422</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2651,17 +2674,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TÉCNICAS REUNIDAS DE TALARA SOCIEDAD ANONIMA CERRADA</t>
+          <t>MONTERO GRAÑA MARIA LUZ</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>44903136</t>
+          <t>511187</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>VIDA LEY D.L. 688</t>
+          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2673,17 +2696,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ISLA HERRERA HARRY</t>
+          <t>NEUHAUS WIESE RODOLFO FERNANDO</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1586323</t>
+          <t>76561</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2695,17 +2718,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>QHSE - ENERGY SERVICES S.A.C.</t>
+          <t>MONTERO GRAÑA MARIA LUZ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>E0032980</t>
+          <t>511186</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2717,17 +2740,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GRAÑA ACUÑA ANDRES AGUSTIN</t>
+          <t>GRAÑA MIRO QUESADA JOSE ALEJANDRO</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>4012000431</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SALUD DE ORO F F V V</t>
+          <t>SALUD PREFERENCIAL</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2739,17 +2762,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TÉCNICAS REUNIDAS DE TALARA SOCIEDAD ANONIMA CERRADA</t>
+          <t>ALBUJAR CAMACHO JUAN CARLOS FERNANDO</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>45970462</t>
+          <t>90476</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>VIDA LEY 2DA CAPA</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2761,17 +2784,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>FARRO MANRIQUE ELMER MIGUEL</t>
+          <t>TÉCNICAS REUNIDAS DE TALARA SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>45970462</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SALUD DE ORO</t>
+          <t>VIDA LEY 2DA CAPA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2788,12 +2811,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>45034801</t>
+          <t>45003639</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>VIDA LEY 2DA CAPA</t>
+          <t>VIDA LEY D.L. 688</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2810,7 +2833,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>45003639</t>
+          <t>44903136</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2827,17 +2850,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>KAUFMANN PARDO PAUL PETER</t>
+          <t>ALBUJAR CAMACHO JUAN CARLOS FERNANDO</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>40022</t>
+          <t>62044</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SALUD PREFERENCIAL</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2849,17 +2872,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GRAÑA MIRO QUESADA JOSE ALEJANDRO</t>
+          <t>TEGA INDUSTRIES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>4012000431</t>
+          <t>E0034025</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SALUD PREFERENCIAL</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2871,17 +2894,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MONTERO GRAÑA MARIA LUZ</t>
+          <t>TÉCNICAS REUNIDAS DE TALARA SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>511187</t>
+          <t>45034801</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
+          <t>VIDA LEY 2DA CAPA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2893,17 +2916,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MONTERO GRAÑA MARIA LUZ</t>
+          <t>RAFFO GONZALEZ CLAUDIA PATRICIA</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>511186</t>
+          <t>1391901</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2915,17 +2938,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HUANACUNE VARGAS JOAQUIN ENRIQUE</t>
+          <t>QHSE - ENERGY SERVICES S.A.C.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1596992</t>
+          <t>E0032980</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2937,17 +2960,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>FIMA S.A.C.</t>
+          <t>BORJA MEJIA EDWARD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1300401814</t>
+          <t>55748</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>VIDA LEY D.L. 688</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2959,17 +2982,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RAFFO GONZALEZ CLAUDIA PATRICIA</t>
+          <t>WALTERSDORFER RIVERA FRANCISCO JOSE</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1391901</t>
+          <t>73745</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3025,12 +3048,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>JORLE S.A.C.</t>
+          <t>PROYECTA INGENIEROS CIVILES S.A.C.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>E0022613</t>
+          <t>E0003294</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3047,12 +3070,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>COMPUPALACE PERU S.A.</t>
+          <t>PETREX SA</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>E0003770</t>
+          <t>E0020799</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3069,12 +3092,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PROYECTA INGENIEROS CIVILES S.A.C.</t>
+          <t>INSTITUTO DE HORTICULTURA TERAPEUTICA S.A.C.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>E0003294</t>
+          <t>E0037543</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3091,17 +3114,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>INDUSTRIAS NETTALCO S.A.</t>
+          <t>PATRIMONIO EN FIDEICOMISO - D. LEG. N°. 861 NO INSCRITO EN LA SMV DIRIGIDO A INVERSIONISTAS INSTIT</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>500907</t>
+          <t>E0035134</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>TRANSPORTE FLOTANTE</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3113,17 +3136,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CASTILLO HUAMAN JUAN PABLO</t>
+          <t>MARVAL PERU SAC</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>37717</t>
+          <t>E0029411</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3135,12 +3158,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MARVAL PERU SAC</t>
+          <t>BUSINESS ANALYTICS S.A.C.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>E0029411</t>
+          <t>E0030659</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3157,12 +3180,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DESARROLLO SOCIAL INMOBILIARIO S.A.C.</t>
+          <t>INTEL SEMICONDUCTORES DEL PERU S.A</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>E0029811</t>
+          <t>E0031545</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3179,17 +3202,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SVENDBORG BRAKES PERU S.A.C.</t>
+          <t>INDUSTRIAS NETTALCO S.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>E0030392</t>
+          <t>500907</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>TRANSPORTE FLOTANTE</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3201,12 +3224,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BUSINESS ANALYTICS S.A.C.</t>
+          <t>SVENDBORG BRAKES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>E0030659</t>
+          <t>E0030392</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3223,17 +3246,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>INTEL SEMICONDUCTORES DEL PERU S.A</t>
+          <t>CASTILLO HUAMAN JUAN PABLO</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>E0031545</t>
+          <t>37717</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3245,12 +3268,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>INSTITUTO DE HORTICULTURA TERAPEUTICA S.A.C.</t>
+          <t>DESARROLLO SOCIAL INMOBILIARIO S.A.C.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>E0037543</t>
+          <t>E0029811</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3267,12 +3290,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PETREX SA</t>
+          <t>COMPUPALACE PERU S.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>E0020799</t>
+          <t>E0003770</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3289,12 +3312,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PATRIMONIO EN FIDEICOMISO - D. LEG. N°. 861 NO INSCRITO EN LA SMV DIRIGIDO A INVERSIONISTAS INSTIT</t>
+          <t>JORLE S.A.C.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>E0035134</t>
+          <t>E0022613</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3311,17 +3334,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MACEDO HERRERA GIULIANA IRINA</t>
+          <t>VALDIVIEZO RAMOS SOL MARIA NATHALIE</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>54606</t>
+          <t>91801</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3333,12 +3356,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CUMPA EXEBIO JORGE DANIEL</t>
+          <t>ANGELES PASCO ENZO ANDRE</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>E0026804</t>
+          <t>E0034069</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3355,17 +3378,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PORTILLA LESCANO FERNANDO LUIS</t>
+          <t>VALENCIA MAC KEE JORGE HERNAN</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>39766</t>
+          <t>69329</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SALUD RED MEDICA F F V V</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3377,17 +3400,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CESPEDES JIMENEZ NOREN DEL ROSARIO</t>
+          <t>BARCENAS CASTILLO JUAN DIEGO</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1519228</t>
+          <t>105347</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3399,17 +3422,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>FLORES CARCAGNO AMADEO JAVIER</t>
+          <t>VEGAS PATIÑO FERNANDO AUGUSTO</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>E0033759</t>
+          <t>7432</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>SALUD DE ORO</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3421,17 +3444,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BERENDSON DE MOREL MARIA ELENA</t>
+          <t>UNILEVER ANDINA PERU S.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>46625</t>
+          <t>E0001352</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3443,17 +3466,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>LAZO SOTIL RAUL MANUEL</t>
+          <t>ANGULO JULCA FERNANDO MIGUEL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1563894</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MEDICA HOSPITALARIA</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3465,17 +3488,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>LOZADA POZO GUILLERMO MARTIN</t>
+          <t>GILES PONCE CARLOS LEONIDAS</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>10896</t>
+          <t>74840</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SALUD DE ORO</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3487,17 +3510,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ARRIECHE TOVAR ROSANA DEYANIRA</t>
+          <t>LAZO SOTIL RAUL MANUEL</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>53567</t>
+          <t>1563894</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3509,12 +3532,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CUADROS ANTUNEZ DE MAYOLO VICTOR CIRO JOSE</t>
+          <t>BERENDSON DE MOREL MARIA ELENA</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>13482</t>
+          <t>46625</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3531,17 +3554,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>GREEN BARRUETA MAGALY</t>
+          <t>ARRIECHE TOVAR ROSANA DEYANIRA</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>4832</t>
+          <t>53567</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SALUD DE ORO</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3553,17 +3576,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>VEGAS PATIÑO FERNANDO AUGUSTO</t>
+          <t>FLORES CARCAGNO AMADEO JAVIER</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7432</t>
+          <t>E0033759</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SALUD DE ORO</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3575,17 +3598,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CACERES SALAZAR PEGGY MAGALY</t>
+          <t>DE RIVERO RUIZ MANUEL IGNACIO ALFONSO</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>54366</t>
+          <t>91686</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3597,17 +3620,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PACHECO GAMBOA APARICIO YURIELLA</t>
+          <t>FERNANDEZ CORNEJO JORGE ALFONSO</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>98739</t>
+          <t>66684</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3619,17 +3642,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MADUEÑO CARCELEN RENZO ANTONIO</t>
+          <t>GULMAN ELIAS PAULINA</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>25652</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SALUD FLEXIBLE</t>
+          <t>SALUD DE ORO</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3641,17 +3664,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>GILES PONCE CARLOS LEONIDAS</t>
+          <t>CUADROS ANTUNEZ DE MAYOLO VICTOR CIRO JOSE</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>74840</t>
+          <t>13482</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3663,17 +3686,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>UNILEVER ANDINA PERU S.A.</t>
+          <t>PACHECO GAMBOA APARICIO YURIELLA</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>E0001352</t>
+          <t>98739</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3685,17 +3708,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>FERNANDEZ CORNEJO JORGE ALFONSO</t>
+          <t>PORTILLA LESCANO FERNANDO LUIS</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>66684</t>
+          <t>39766</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>SALUD RED MEDICA F F V V</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3707,12 +3730,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>LLAP NEGRON MOISES ALEJANDRO</t>
+          <t>OLCESE FERNANDEZ CESAR ARTURO</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>73140</t>
+          <t>69196</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3729,17 +3752,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MOGOLLON FERRER HUGO ENRIQUE</t>
+          <t>PORTILLA LESCANO FERNANDO LUIS</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>100538</t>
+          <t>48631</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>SALUD RED MEDICA F F V V</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3751,17 +3774,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DE RIVERO RUIZ MANUEL IGNACIO ALFONSO</t>
+          <t>GREEN BARRUETA MAGALY</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>91686</t>
+          <t>4832</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>SALUD DE ORO</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3773,17 +3796,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ANGULO JULCA FERNANDO MIGUEL</t>
+          <t>CESPEDES JIMENEZ NOREN DEL ROSARIO</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>4049</t>
+          <t>1519228</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SALUD RED MEDICA HOSPITALARIA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3795,17 +3818,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>GULMAN ELIAS PAULINA</t>
+          <t>SANCHEZ QUINTANILLA LEON MAGNO</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>80298</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SALUD DE ORO</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3817,17 +3840,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ANGELES PASCO ENZO ANDRE</t>
+          <t>LLAP NEGRON MOISES ALEJANDRO</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>E0034069</t>
+          <t>73140</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3839,17 +3862,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>OLCESE FERNANDEZ CESAR ARTURO</t>
+          <t>MACEDO HERRERA GIULIANA IRINA</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>69196</t>
+          <t>54606</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3861,17 +3884,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>EGUREN ELGUERA FRANCISCO</t>
+          <t>MOGOLLON FERRER HUGO ENRIQUE</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>51101</t>
+          <t>100538</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3883,17 +3906,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SANCHEZ QUINTANILLA LEON MAGNO</t>
+          <t>MELGAR PRADO MIRIAM EMPERATRIZ</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>80298</t>
+          <t>69328</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3905,17 +3928,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>VALDIVIEZO RAMOS SOL MARIA NATHALIE</t>
+          <t>CACERES SALAZAR PEGGY MAGALY</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>91801</t>
+          <t>54366</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3927,17 +3950,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PORTILLA LESCANO FERNANDO LUIS</t>
+          <t>MADUEÑO CARCELEN RENZO ANTONIO</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>48631</t>
+          <t>25652</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SALUD RED MEDICA F F V V</t>
+          <t>SALUD FLEXIBLE</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3949,17 +3972,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MELGAR PRADO MIRIAM EMPERATRIZ</t>
+          <t>CUMPA EXEBIO JORGE DANIEL</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>69328</t>
+          <t>E0026804</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3971,17 +3994,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BARCENAS CASTILLO JUAN DIEGO</t>
+          <t>LOZADA POZO GUILLERMO MARTIN</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>105347</t>
+          <t>10896</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>SALUD DE ORO</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3993,17 +4016,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>VALENCIA MAC KEE JORGE HERNAN</t>
+          <t>EGUREN ELGUERA FRANCISCO</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>69329</t>
+          <t>51101</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4081,17 +4104,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ENCINAS MARROQUIN CAROLINA NANCY</t>
+          <t>ZAPATA MOYA ARMANDO RODOLFO MIGUEL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1506821</t>
+          <t>52017</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4103,17 +4126,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ZAPATA MOYA ARMANDO RODOLFO MIGUEL</t>
+          <t>MACARA-CHVILI MAZZINI MICHEL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>52017</t>
+          <t>1490594</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4125,17 +4148,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>LABIN PERU S.A.</t>
+          <t>UREÑA YEPEZ JENNY MARIA</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1300376886</t>
+          <t>50846</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>VIDA LEY D.L. 688</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4147,12 +4170,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MACARA-CHVILI MAZZINI MICHEL</t>
+          <t>ENCINAS MARROQUIN CAROLINA NANCY</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1490594</t>
+          <t>1506821</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4169,17 +4192,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>UREÑA YEPEZ JENNY MARIA</t>
+          <t>LABIN PERU S.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>50846</t>
+          <t>1300376886</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>VIDA LEY D.L. 688</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4213,17 +4236,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>FELIX GUERRERO MONICA LIZBET</t>
+          <t>SAGARNAGA ROCCHETTI GINO KENNY</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>76097</t>
+          <t>1575492</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4257,17 +4280,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SAGARNAGA ROCCHETTI GINO KENNY</t>
+          <t>FELIX GUERRERO MONICA LIZBET</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1575492</t>
+          <t>76097</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4279,17 +4302,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BECK ESCALANTE VALERIA</t>
+          <t>MANSILLA MANRIQUE ROCIO ZENAIDA</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1436701</t>
+          <t>71093</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4301,17 +4324,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TRANSLIGRA S.A.C.</t>
+          <t>AGUILAR NUÑEZ RONALD JUNNIOR</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>47444</t>
+          <t>57824</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4323,17 +4346,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SALOMON POMAR JORGE GUILLERMO</t>
+          <t>BECK ESCALANTE VALERIA</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>44125</t>
+          <t>1436701</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4367,17 +4390,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>QUIROZ CORAL MANUEL ADOLFO</t>
+          <t>TRANSLIGRA S.A.C.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>93933</t>
+          <t>47444</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4389,17 +4412,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MANSILLA MANRIQUE ROCIO ZENAIDA</t>
+          <t>QUIROZ CORAL MANUEL ADOLFO</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>71093</t>
+          <t>93933</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4411,17 +4434,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>AGUILAR NUÑEZ RONALD JUNNIOR</t>
+          <t>SALOMON POMAR JORGE GUILLERMO</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>57824</t>
+          <t>44125</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4477,17 +4500,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PEÑA BOHORQUEZ ALBERTO</t>
+          <t>FEDSEG S.A.C.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1547966</t>
+          <t>47979</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4499,17 +4522,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SAMANEZ GRINSTEN JOSE FERNANDO</t>
+          <t>OSORIO LINARES KARIN ROCIO</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>50994</t>
+          <t>1538631</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4521,17 +4544,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>LAY INFANTES-INFANTES FERNANDO</t>
+          <t>PATRIMONIO EN FIDEICOMISO - D. LEG. N°. 861 NO INSCRITO EN LA SMV DIRIGIDO A INVERSIONISTAS INSTIT</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1548754</t>
+          <t>1300044381</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>VIDA LEY D.L. 688</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4543,12 +4566,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>FLORES HUIMAN KARINA LUZ</t>
+          <t>PEÑA BOHORQUEZ ALBERTO</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1547935</t>
+          <t>1547966</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4565,12 +4588,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SANCHEZ VILLACORTA LOUIS MICHAEL</t>
+          <t>RODRIGUEZ VALDEZ JULIO CESAR</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1573582</t>
+          <t>1494409</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4587,17 +4610,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>TORI DEVOTO DE GRAÑA ROSANNA</t>
+          <t>GRAÑA ACUÑA SANTIAGO MANUEL ALFONSO JAVIER</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1574229</t>
+          <t>531206</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4609,17 +4632,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>FEDSEG S.A.C.</t>
+          <t>SANCHEZ VILLACORTA LOUIS MICHAEL</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>47979</t>
+          <t>1573582</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4631,12 +4654,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ACRES FINANCE S.A.</t>
+          <t>KRAVER EQUIP SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>67288266</t>
+          <t>1300361785</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4653,12 +4676,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>AYBAR HUMALA JOSE ANTONIO</t>
+          <t>TORI DEVOTO DE GRAÑA ROSANNA</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>1586362</t>
+          <t>1574229</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4675,17 +4698,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>KRAVER EQUIP SOCIEDAD ANONIMA CERRADA</t>
+          <t>AYBAR HUMALA JOSE ANTONIO</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>1300361785</t>
+          <t>1586362</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>VIDA LEY D.L. 688</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4719,17 +4742,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>PATRIMONIO EN FIDEICOMISO - D. LEG. N°. 861 NO INSCRITO EN LA SMV DIRIGIDO A INVERSIONISTAS INSTIT</t>
+          <t>ACRES SOCIEDAD AGENTE DE BOLSA S.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>1300044381</t>
+          <t>46637</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>VIDA LEY D.L. 688</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4741,17 +4764,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>INDUSTRIAS NETTALCO S.A.</t>
+          <t>ACRES FINANCE S.A.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>1308781</t>
+          <t>67288266</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>VIDA LEY D.L. 688</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4763,17 +4786,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>GRAÑA ACUÑA SANTIAGO MANUEL ALFONSO JAVIER</t>
+          <t>ACRES FINANCE S.A.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>531206</t>
+          <t>47903</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4785,17 +4808,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>OSORIO LINARES KARIN ROCIO</t>
+          <t>SAMANEZ GRINSTEN JOSE FERNANDO</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1538631</t>
+          <t>50994</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4807,17 +4830,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ACRES FINANCE S.A.</t>
+          <t>FLORES HUIMAN KARINA LUZ</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>47903</t>
+          <t>1547935</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4829,12 +4852,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>RODRIGUEZ VALDEZ JULIO CESAR</t>
+          <t>LAY INFANTES-INFANTES FERNANDO</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>1494409</t>
+          <t>1548754</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4851,17 +4874,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ACRES SOCIEDAD AGENTE DE BOLSA S.A.</t>
+          <t>INDUSTRIAS NETTALCO S.A.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>46637</t>
+          <t>1308781</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4873,17 +4896,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>TERAN SANCHEZ CLAUDIO MARCEL</t>
+          <t>LA CRUZ VICENTE DENISSE MILAGROS</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>451859</t>
+          <t>4969</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD DE ORO</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4917,17 +4940,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SCAN GLOBAL LOGISTICS PERU S.A.C.</t>
+          <t>HAMANN AMEZAGA ERIKA MARIA</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>49483</t>
+          <t>717356</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4939,12 +4962,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>HAMANN AMEZAGA ERIKA MARIA</t>
+          <t>TERAN SANCHEZ CLAUDIO MARCEL</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>717356</t>
+          <t>451859</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4983,17 +5006,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>GRAÑA SARMIENTO RAFAEL EDUARDO</t>
+          <t>SCAN GLOBAL LOGISTICS PERU S.A.C.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>1547936</t>
+          <t>49483</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5005,17 +5028,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>LA CRUZ VICENTE DENISSE MILAGROS</t>
+          <t>GRAÑA SARMIENTO RAFAEL EDUARDO</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>4969</t>
+          <t>1547936</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SALUD DE ORO</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5027,12 +5050,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>DULANTO SWAYNE FRANCISCO JAVIER</t>
+          <t>SOTO RODRIGUEZ GLADYS JUANA</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>1596865</t>
+          <t>1547940</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5049,12 +5072,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SOTO RODRIGUEZ GLADYS JUANA</t>
+          <t>DULANTO SWAYNE FRANCISCO JAVIER</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>1547940</t>
+          <t>1596865</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5071,12 +5094,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>DIAZ ANDRADE PUIWHA FABIOLA</t>
+          <t>MEDINA MERINO DANESSE MELISSA</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1596950</t>
+          <t>1576092</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5093,17 +5116,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BEINGOLEA CHAVEZ ANA MARIA</t>
+          <t>MOTTA MOGROVEJO VDA DE HINOJOSA PETRONILA YOLANDA</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>1484817</t>
+          <t>94159</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5115,12 +5138,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BORJA MEJIA EDWARD</t>
+          <t>DIAZ ANDRADE PUIWHA FABIOLA</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>1591974</t>
+          <t>1596950</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5137,17 +5160,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>MEDINA MERINO DANESSE MELISSA</t>
+          <t>VAN DER VALK MATIENZO MARIA LUISA</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>1576092</t>
+          <t>508501</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5159,17 +5182,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MOTTA MOGROVEJO VDA DE HINOJOSA PETRONILA YOLANDA</t>
+          <t>BORJA MEJIA EDWARD</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>94159</t>
+          <t>1591974</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5181,17 +5204,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>VAN DER VALK MATIENZO MARIA LUISA</t>
+          <t>BEINGOLEA CHAVEZ ANA MARIA</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>508501</t>
+          <t>1484817</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5225,17 +5248,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ARIAS MEZA MARIAN GABRIELA</t>
+          <t>ALCANTARA QUISPE TERESA DEL PILAR</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>100108</t>
+          <t>1493794</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5247,17 +5270,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>FERRALIA PERU S.A.C.</t>
+          <t>CUADROS ANTUNEZ DE MAYOLO VICTOR CIRO JOSE</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>48899</t>
+          <t>1488856</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5269,17 +5292,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>YEP CHANG LILIANA DORA</t>
+          <t>ARIAS MEZA MARIAN GABRIELA</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>1538612</t>
+          <t>100108</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5291,12 +5314,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>CUADROS ANTUNEZ DE MAYOLO VICTOR CIRO JOSE</t>
+          <t>LOPEZ PROAÑO LUIS LEONCIO ISRAEL</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>1488856</t>
+          <t>1463498</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5313,17 +5336,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>COOK VIZURRAGA KETTY AURORA</t>
+          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>1416594</t>
+          <t>52540</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5335,17 +5358,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
+          <t>FERRALIA PERU S.A.C.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>52540</t>
+          <t>48899</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5357,12 +5380,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>LOPEZ PROAÑO LUIS LEONCIO ISRAEL</t>
+          <t>COOK VIZURRAGA KETTY AURORA</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>1463498</t>
+          <t>1416594</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5379,12 +5402,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ALCANTARA QUISPE TERESA DEL PILAR</t>
+          <t>YEP CHANG LILIANA DORA</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>1493794</t>
+          <t>1538612</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5423,12 +5446,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>LUQUE BECHTLE MARIA TERESA</t>
+          <t>GUERRERO RIVERA MARTHA GABRIELA</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>1596904</t>
+          <t>1536831</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -5445,17 +5468,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>GUERRERO RIVERA MARTHA GABRIELA</t>
+          <t>LA CRUZ VICENTE DENISSE MILAGROS</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>1536831</t>
+          <t>30507</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD FLEXIBLE</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5467,17 +5490,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>LA CRUZ VICENTE DENISSE MILAGROS</t>
+          <t>LUQUE BECHTLE MARIA TERESA</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>30507</t>
+          <t>1596904</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>SALUD FLEXIBLE</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5533,17 +5556,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>KONSULTYX E.I.R.L.</t>
+          <t>PERUVIAN NORTH FOOD SAC</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>69976</t>
+          <t>48447</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5555,17 +5578,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>GALVEZ CASANOVA JOSE ANTONIO</t>
+          <t>SACO ORTEGA MERCEDES DEL PILAR</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>74512</t>
+          <t>1511273</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5577,17 +5600,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>MANCO FERNANDEZ RENZO JESUS</t>
+          <t>RODRIGUEZ ARDILES RICARDO JOSE FERNANDO</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>1484358</t>
+          <t>4011000108</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5599,17 +5622,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>MACARA-CHVILI MAZZINI MICHEL</t>
+          <t>GALVEZ CASANOVA JOSE ANTONIO</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>520443</t>
+          <t>74512</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5621,17 +5644,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>RIDOUTT AGNOLI ALEXANDRE ROBERT</t>
+          <t>URRUTIA NUÑEZ PAOLA PILAR</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>84117</t>
+          <t>1575487</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5643,17 +5666,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>RODRIGUEZ ARDILES RICARDO JOSE FERNANDO</t>
+          <t>RIDOUTT AGNOLI ALEXANDRE ROBERT</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>4011000108</t>
+          <t>84117</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5665,17 +5688,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>URRUTIA NUÑEZ PAOLA PILAR</t>
+          <t>TÉCNICAS REUNIDAS DE TALARA SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>1575487</t>
+          <t>E0018775</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5687,17 +5710,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>PERUVIAN NORTH FOOD SAC</t>
+          <t>MACARA-CHVILI MAZZINI MICHEL</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>48447</t>
+          <t>520443</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5709,17 +5732,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>TÉCNICAS REUNIDAS DE TALARA SOCIEDAD ANONIMA CERRADA</t>
+          <t>MANCO FERNANDEZ RENZO JESUS</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>E0018775</t>
+          <t>1484358</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5731,17 +5754,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SACO ORTEGA MERCEDES DEL PILAR</t>
+          <t>KONSULTYX E.I.R.L.</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>1511273</t>
+          <t>69976</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5753,17 +5776,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>HARTEN WOODMAN EDUARDO</t>
+          <t>BRIGNETI BADIOLA ROCIO MARIA DE FATIMA</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>1512809</t>
+          <t>95958</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5775,17 +5798,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ROMERO TOLEDO VICTOR GIUSSEPPE</t>
+          <t>BUSINESS ANALYTICS S.A.C.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>1547931</t>
+          <t>49513</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5797,12 +5820,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>MEDIC YEM SALUD OCUPACIONAL S.A.C.</t>
+          <t>HARTEN WOODMAN EDUARDO</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>1573365</t>
+          <t>1512809</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5819,17 +5842,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>BUSINESS ANALYTICS S.A.C.</t>
+          <t>TRANSFORMACIONES METAL MECANICAS SA</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>49513</t>
+          <t>1586431</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5841,12 +5864,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TRANSFORMACIONES METAL MECANICAS SA</t>
+          <t>ROMERO TOLEDO VICTOR GIUSSEPPE</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>1586431</t>
+          <t>1547931</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -5863,17 +5886,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>BRIGNETI BADIOLA ROCIO MARIA DE FATIMA</t>
+          <t>MEDIC YEM SALUD OCUPACIONAL S.A.C.</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>95958</t>
+          <t>1573365</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5885,17 +5908,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ASAAD GUERRA BALKYS LEONOR</t>
+          <t>GUZMAN MALAGA DANIEL</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>73670</t>
+          <t>1573356</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5907,12 +5930,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>GUZMAN MALAGA DANIEL</t>
+          <t>SEGURA GONZALES JAIME CARLOS</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>1573356</t>
+          <t>709789</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5929,12 +5952,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>SEGURA GONZALES JAIME CARLOS</t>
+          <t>CASTRO QUIROS ALONSO JAVIER</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>709789</t>
+          <t>1547963</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5951,17 +5974,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CASTRO QUIROS ALONSO JAVIER</t>
+          <t>ASAAD GUERRA BALKYS LEONOR</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>1547963</t>
+          <t>73670</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5973,12 +5996,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>CASTELLARES CARLIN JESUS ERNESTO</t>
+          <t>DELGADO RODRIGUEZ GUSTAVO MANUEL</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>1447004</t>
+          <t>1586349</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5995,17 +6018,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>FARFAN ZAPATA JULIO CESAR</t>
+          <t>ELIAS DE GULMAN CECILIA HORTENSIA</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>1527972</t>
+          <t>12119</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD DE ORO</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -6017,17 +6040,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>LOPEZ CORDOVA LUIS ALFREDO</t>
+          <t>ZAPPING PERU S.A.C.</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>53924</t>
+          <t>75617</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -6039,17 +6062,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ELIAS DE GULMAN CECILIA HORTENSIA</t>
+          <t>CASTILLO VERA VIVIANA SOFIA</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>12119</t>
+          <t>1506648</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>SALUD DE ORO</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6061,17 +6084,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ZAPPING PERU S.A.C.</t>
+          <t>VERA BUSCH CRISTIAN ANGEL</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>75617</t>
+          <t>1547952</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6083,17 +6106,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>DELGADO RODRIGUEZ GUSTAVO MANUEL</t>
+          <t>LOJA CURAY NATALIA VALERIA</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>1586349</t>
+          <t>86533</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6105,17 +6128,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>LOJA CURAY NATALIA VALERIA</t>
+          <t>LOPEZ CORDOVA LUIS ALFREDO</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>86533</t>
+          <t>53924</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6127,12 +6150,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>CASTILLO VERA VIVIANA SOFIA</t>
+          <t>VALENZUELA SUBIABRE ALEJANDRO</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>1506648</t>
+          <t>1575466</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -6149,12 +6172,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>VERA BUSCH CRISTIAN ANGEL</t>
+          <t>CASTELLARES CARLIN JESUS ERNESTO</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>1547952</t>
+          <t>1447004</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -6171,12 +6194,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>VALENZUELA SUBIABRE ALEJANDRO</t>
+          <t>FARFAN ZAPATA JULIO CESAR</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>1575466</t>
+          <t>1527972</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -6193,17 +6216,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>BENAVIDES LOZANO DIEGO</t>
+          <t>CUADROS ANTUNEZ DE MAYOLO VICTOR CIRO JOSE</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>54357</t>
+          <t>1545397</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6215,17 +6238,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CUADROS ANTUNEZ DE MAYOLO VICTOR CIRO JOSE</t>
+          <t>BENAVIDES LOZANO DIEGO</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>1545397</t>
+          <t>54357</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6259,12 +6282,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>RUIZ SALAZAR JOSE BRUCE STEVEN</t>
+          <t>ALVAREZ RIVERA JUAN ALEJANDRO</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>1408038</t>
+          <t>1396507</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -6281,12 +6304,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ALVA DIAZ ROBERTO ALEXANDER</t>
+          <t>RODRIGO GRAÑA ISMAEL</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>1532665</t>
+          <t>1418826</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -6325,17 +6348,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>DELGADO CUADROS MARIELA ELVIRA</t>
+          <t>MORALES PUCH ANDREA</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>1575320</t>
+          <t>93584</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -6347,17 +6370,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>MORALES PUCH ANDREA</t>
+          <t>RUIZ SALAZAR JOSE BRUCE STEVEN</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>93584</t>
+          <t>1408038</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -6369,12 +6392,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ALVAREZ RIVERA JUAN ALEJANDRO</t>
+          <t>CARPIO CORREA ROSA CELIA</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>1396507</t>
+          <t>1547969</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -6391,17 +6414,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>FLORES CELI IRIS ALICIA</t>
+          <t>DELGADO CUADROS MARIELA ELVIRA</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>98960</t>
+          <t>1575320</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6413,17 +6436,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>FARRO MANRIQUE ELMER MIGUEL</t>
+          <t>SELECTA CONSULTORA Y SERVICIOS ESPECIALIZADOS E.I.R.L.</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>1464173</t>
+          <t>E0039642</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -6435,17 +6458,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>RODRIGO GRAÑA ISMAEL</t>
+          <t>FLORES CELI IRIS ALICIA</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>1418826</t>
+          <t>98960</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -6457,12 +6480,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>CARPIO CORREA ROSA CELIA</t>
+          <t>FARRO MANRIQUE ELMER MIGUEL</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>1547969</t>
+          <t>1464173</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -6479,17 +6502,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SELECTA CONSULTORA Y SERVICIOS ESPECIALIZADOS E.I.R.L.</t>
+          <t>ALVA DIAZ ROBERTO ALEXANDER</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>E0039642</t>
+          <t>1532665</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -6501,17 +6524,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ASENCIOS GOMEZ LASTENIA CECILIA</t>
+          <t>MIGUEL BRUM DE DEUS LUAN SAVIO</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>1463838</t>
+          <t>74518</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -6523,12 +6546,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>MIGUEL BRUM DE DEUS LUAN SAVIO</t>
+          <t>MONTES RAMOS MARLITH ZENAIDA</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>74518</t>
+          <t>53310</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -6545,17 +6568,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>MONTES RAMOS MARLITH ZENAIDA</t>
+          <t>ASENCIOS GOMEZ LASTENIA CECILIA</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>53310</t>
+          <t>1463838</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -6611,12 +6634,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>M.G. GROUP CONSULTING S.A.C.</t>
+          <t>HARTEN WOODMAN EDUARDO</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>1389315</t>
+          <t>1565837</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -6633,12 +6656,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>HARTEN WOODMAN EDUARDO</t>
+          <t>M.G. GROUP CONSULTING S.A.C.</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>1565837</t>
+          <t>1389315</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6655,12 +6678,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>DIAZ PEREZ JORGE ANGEL</t>
+          <t>PODESTA HAUSTEIN GONZALO MANUEL</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>1563812</t>
+          <t>1575959</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6677,12 +6700,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>MENDOZA TRUJILLO LINDER</t>
+          <t>DIAZ PEREZ JORGE ANGEL</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>1537757</t>
+          <t>1563812</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6721,12 +6744,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>PODESTA HAUSTEIN GONZALO MANUEL</t>
+          <t>MENDOZA TRUJILLO LINDER</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>1575959</t>
+          <t>1537757</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6787,12 +6810,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>JOAQUIN VILLANUEVA PEDRO ALBERTO</t>
+          <t>MANDUJANO SALAS YAMPIERR PAOLO</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>1551803</t>
+          <t>1538645</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6809,12 +6832,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>MANDUJANO SALAS YAMPIERR PAOLO</t>
+          <t>MAN RAMIREZ YULIANA RUTH</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>1538645</t>
+          <t>1573343</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -6831,17 +6854,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>LOPEZ HURTADO RAMIREZ CARMEN MILAGROS</t>
+          <t>SALGUERO LIMACHI CARLOS ALBERTO</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>1525337</t>
+          <t>36481</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6853,17 +6876,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>LANATA ZELADA ENRIQUE FRANCISCO</t>
+          <t>JOAQUIN VILLANUEVA PEDRO ALBERTO</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>51354</t>
+          <t>1551803</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6875,17 +6898,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SALGUERO LIMACHI CARLOS ALBERTO</t>
+          <t>DURAN QUEROL RODOLFO MARTIN</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>36481</t>
+          <t>1516119</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -6897,17 +6920,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>MAN RAMIREZ YULIANA RUTH</t>
+          <t>LANATA ZELADA ENRIQUE FRANCISCO</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>1573343</t>
+          <t>51354</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6919,12 +6942,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>DURAN QUEROL RODOLFO MARTIN</t>
+          <t>DONAYRE REVILLA BEATRIZ CONSUELO</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>1516119</t>
+          <t>1516120</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6941,12 +6964,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>DONAYRE REVILLA BEATRIZ CONSUELO</t>
+          <t>LOPEZ HURTADO RAMIREZ CARMEN MILAGROS</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>1516120</t>
+          <t>1525337</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6963,17 +6986,17 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>LLOSA &amp; R. LA ROSA ABOGADOS SOCIEDAD CIVIL DE RESPONSABILIDAD LIMITADA-LLOSA &amp; R. LA ROSA ABOGADOS S</t>
+          <t>CORSO HUACO CLAUDIO</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>101890</t>
+          <t>1433287</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -6985,17 +7008,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>CORSO HUACO CLAUDIO</t>
+          <t>LLOSA &amp; R. LA ROSA ABOGADOS SOCIEDAD CIVIL DE RESPONSABILIDAD LIMITADA-LLOSA &amp; R. LA ROSA ABOGADOS S</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>1433287</t>
+          <t>101890</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -7012,7 +7035,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>1579179</t>
+          <t>1578883</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7029,17 +7052,17 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>GRAÑA ACUÑA HERNANDO ALEJANDRO CONSTANCIO</t>
+          <t>HUAMAN DE LOS HEROS PANCORVO BENJAMIN VICENTE MARIO</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>4012000455</t>
+          <t>75408</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>SALUD PREFERENCIAL</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7051,17 +7074,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>HUAMAN CORNELIO RAFAEL RICARDO</t>
+          <t>CEDRON ZARATE JOSE GABRIEL</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>1578883</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>ONCO. INTEGRAL INDIVIDUAL BROKERS</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7073,17 +7096,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>VALERA CHIRINOS GERARDO LUIS</t>
+          <t>PINILLOS VIZCARRA KARLA</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>1483604</t>
+          <t>51407</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -7095,17 +7118,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>PINILLOS VIZCARRA KARLA</t>
+          <t>VALERA CHIRINOS GERARDO LUIS</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>51407</t>
+          <t>1483604</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -7117,17 +7140,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>TRAVERSO ZEGARRA CAMILO FERNANDO</t>
+          <t>GARRO MENDIOLA HUGO</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>90574</t>
+          <t>1525616</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -7139,17 +7162,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>CEDRON ZARATE JOSE GABRIEL</t>
+          <t>GRAÑA ACUÑA HERNANDO ALEJANDRO CONSTANCIO</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>4012000455</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>ONCO. INTEGRAL INDIVIDUAL BROKERS</t>
+          <t>SALUD PREFERENCIAL</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -7161,17 +7184,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>GARRO MENDIOLA HUGO</t>
+          <t>TRAVERSO ZEGARRA CAMILO FERNANDO</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>1525616</t>
+          <t>90574</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -7183,17 +7206,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>HUAMAN DE LOS HEROS PANCORVO BENJAMIN VICENTE MARIO</t>
+          <t>HUAMAN CORNELIO RAFAEL RICARDO</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>75408</t>
+          <t>1579179</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -7205,17 +7228,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ESPINOZA HERRERA GUSTAVO JOAQUIN</t>
+          <t>GRAÑA ACUÑA SANTIAGO MANUEL ALFONSO JAVIER</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>80715</t>
+          <t>506220</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>CASCOS</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -7227,17 +7250,17 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>GRAÑA ACUÑA SANTIAGO MANUEL ALFONSO JAVIER</t>
+          <t>ESPINOZA HERRERA GUSTAVO JOAQUIN</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>506220</t>
+          <t>80715</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>CASCOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -7271,12 +7294,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>MELENDEZ MORALES ZANDRA LILLIANA</t>
+          <t>TOLEDO  FERNANDO ADRIAN</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>1586388</t>
+          <t>1514978</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -7293,12 +7316,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>MARTINELLI BERNOS DE LANATTA AMALIA CRISTINA</t>
+          <t>SOLARI DE LA CADENA SONNIA VICTORIA</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>1586393</t>
+          <t>1586404</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -7315,17 +7338,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>CALLE BUSTAMANTE ABEL ANTONIO</t>
+          <t>VASQUEZ RUESTA EDWIN JOSE MARIA</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>8855</t>
+          <t>1586377</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>SALUD DE ORO</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -7337,17 +7360,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SOLARI DE LA CADENA SONNIA VICTORIA</t>
+          <t>CALLE BUSTAMANTE ABEL ANTONIO</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>1586404</t>
+          <t>8855</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD DE ORO</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -7359,17 +7382,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>PFLUCKER VALDIVIA CAROLINE</t>
+          <t>PATRIMONIO EN FIDEICOMISO - D. LEG. N°. 861 NO INSCRITO EN LA SMV DIRIGIDO A INVERSIONISTAS INSTIT</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>15888</t>
+          <t>47641</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>FULL SALUD F F V V</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -7381,17 +7404,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>PFLUCKER VALDIVIA CAROLINE</t>
+          <t>MELENDEZ MORALES ZANDRA LILLIANA</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>15889</t>
+          <t>1586388</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>FULL SALUD F F V V</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -7425,17 +7448,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>LOPEZ RIOS LUCIA DEL ROCIO</t>
+          <t>PFLUCKER VALDIVIA CAROLINE</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>1414538</t>
+          <t>15890</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULL SALUD F F V V</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -7447,17 +7470,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>PATRIMONIO EN FIDEICOMISO - D. LEG. N°. 861 NO INSCRITO EN LA SMV DIRIGIDO A INVERSIONISTAS INSTIT</t>
+          <t>MARTINELLI BERNOS DE LANATTA AMALIA CRISTINA</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>47641</t>
+          <t>1586393</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -7469,17 +7492,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>TOLEDO  FERNANDO ADRIAN</t>
+          <t>PFLUCKER VALDIVIA CAROLINE</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>1514978</t>
+          <t>15889</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULL SALUD F F V V</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -7491,17 +7514,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>VASQUEZ RUESTA EDWIN JOSE MARIA</t>
+          <t>PFLUCKER VALDIVIA CAROLINE</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>1586377</t>
+          <t>15888</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULL SALUD F F V V</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -7513,17 +7536,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>PFLUCKER VALDIVIA CAROLINE</t>
+          <t>LOPEZ RIOS LUCIA DEL ROCIO</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>15890</t>
+          <t>1414538</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>FULL SALUD F F V V</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -7535,17 +7558,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>PROYECTOS PRODUCTOS SOLUCIONES SOCIEDAD ANÓNIMA CERRADA</t>
+          <t>SEMINARIO Y CIA S.A.B. S. A.</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>S0344240</t>
+          <t>E0001944</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>S.C.T.R. - SALUD</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -7557,17 +7580,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>CECILIA CECILIA S.A.C.</t>
+          <t>VELASCO COLLAZOS JHONNY ALEXANDER</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>E0037340</t>
+          <t>1547983</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -7579,17 +7602,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>PORTILLA ALVAREZ CARLOS ANDRES</t>
+          <t>BAUTISTA ESTRUCTURAS SAC</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>72116</t>
+          <t>S0035867</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>S.C.T.R. - SALUD</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -7601,17 +7624,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>VELASCO COLLAZOS JHONNY ALEXANDER</t>
+          <t>BAUTISTA ESTRUCTURAS SAC</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>1547983</t>
+          <t>P0039204</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>S.C.T.R. - PENSION</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -7623,17 +7646,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>CONSORCIO EJECUTOR CHANCHAMAYO II</t>
+          <t>HOUSEONLINE S.A.</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>S0331483</t>
+          <t>E0003208</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>S.C.T.R. - SALUD</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -7645,17 +7668,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>FITESA PERU S.A.C.</t>
+          <t>BERRIOS LAZO RUBEN ARTEMIO</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>E0005074</t>
+          <t>1596921</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -7667,12 +7690,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>AC TOURS S.A.C.</t>
+          <t>CECILIA CECILIA S.A.C.</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>E0012974</t>
+          <t>E0037340</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -7689,17 +7712,17 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ENERGIAS FIRMES DEL PERU S.A.C. - EFIPE S.A.C.</t>
+          <t>SCAN GLOBAL LOGISTICS PERU S.A.C.</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>46781</t>
+          <t>E0026175</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -7711,12 +7734,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ENLACES LOGISTICOS SOCIEDAD ANONIMA CERRADA - ENLACES LOGISTICOS S.A.C.</t>
+          <t>SPOT LINCE S.A.C.</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>E0039275</t>
+          <t>E0038807</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7733,17 +7756,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BAUTISTA ESTRUCTURAS SAC</t>
+          <t>TIQUE S.A.C.</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>P0039204</t>
+          <t>E0028654</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>S.C.T.R. - PENSION</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -7755,17 +7778,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>GRUPO GLOBAL BRANDS S.A.C.</t>
+          <t>CONSORCIO EJECUTOR CHANCHAMAYO II</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>E0038819</t>
+          <t>S0331483</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>S.C.T.R. - SALUD</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -7777,12 +7800,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>F.G.H. CORPORATION S.A.C.</t>
+          <t>ENERGIAS FIRMES DEL PERU S.A.C. - EFIPE S.A.C.</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>E0024044</t>
+          <t>E0032428</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7799,12 +7822,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>RABOFINANCE PERU S.A.C. - RABOFINANCE PERU</t>
+          <t>AC TOURS S.A.C.</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>E0024561</t>
+          <t>E0012974</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7821,12 +7844,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SCAN GLOBAL LOGISTICS PERU S.A.C.</t>
+          <t>MCC SEMINARIO INVERSIONES GLOBALES SOCIEDAD ANONIMA CERRADA - MCC SEMINARIO INVERSIONES GLOBALES SAC</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>E0026175</t>
+          <t>E0002721</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7843,17 +7866,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>HOUSEONLINE S.A.</t>
+          <t>PORTILLA ALVAREZ CARLOS ANDRES</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>E0003208</t>
+          <t>72116</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -7887,12 +7910,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>MCC SEMINARIO INVERSIONES GLOBALES SOCIEDAD ANONIMA CERRADA - MCC SEMINARIO INVERSIONES GLOBALES SAC</t>
+          <t>ENLACES LOGISTICOS SOCIEDAD ANONIMA CERRADA - ENLACES LOGISTICOS S.A.C.</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>E0002721</t>
+          <t>E0039275</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7909,17 +7932,17 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>CONSORCIO EJECUTOR CHANCHAMAYO II</t>
+          <t>GRUPO GLOBAL BRANDS S.A.C.</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>P0276163</t>
+          <t>E0038819</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>S.C.T.R. - PENSION</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -7931,12 +7954,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>TIQUE S.A.C.</t>
+          <t>F.G.H. CORPORATION S.A.C.</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>E0028654</t>
+          <t>E0024044</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7953,12 +7976,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>SEMINARIO Y CIA S.A.B. S. A.</t>
+          <t>ALMA EDUCATIVA SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>E0001944</t>
+          <t>E0036314</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7975,17 +7998,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>PAT. EN FID. D.LEG.861-SUMAQ NO INS. EN LA SMV DIR. A INV. INST.</t>
+          <t>PROYECTOS PRODUCTOS SOLUCIONES SOCIEDAD ANÓNIMA CERRADA</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>E0031107</t>
+          <t>P0283307</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>S.C.T.R. - PENSION</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -7997,17 +8020,17 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ENERGIAS FIRMES DEL PERU S.A.C. - EFIPE S.A.C.</t>
+          <t>CONSORCIO EJECUTOR CHANCHAMAYO II</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>E0032428</t>
+          <t>P0276163</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>S.C.T.R. - PENSION</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -8019,17 +8042,17 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BERRIOS LAZO RUBEN ARTEMIO</t>
+          <t>RABOFINANCE PERU S.A.C. - RABOFINANCE PERU</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>1596921</t>
+          <t>E0024561</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -8041,12 +8064,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ARRIBAS CORREDORES DE SEGUROS S.A.C.</t>
+          <t>FITESA PERU S.A.C.</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>E0033255</t>
+          <t>E0005074</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -8063,17 +8086,17 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>PROYECTOS PRODUCTOS SOLUCIONES SOCIEDAD ANÓNIMA CERRADA</t>
+          <t>NARIO MEDINA MARIA GUADALUPE</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>P0283307</t>
+          <t>54982</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>S.C.T.R. - PENSION</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -8085,17 +8108,17 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BAUTISTA ESTRUCTURAS SAC</t>
+          <t>PAT. EN FID. D.LEG.861-SUMAQ NO INS. EN LA SMV DIR. A INV. INST.</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>S0035867</t>
+          <t>E0031107</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>S.C.T.R. - SALUD</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -8107,17 +8130,17 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>NARIO MEDINA MARIA GUADALUPE</t>
+          <t>ARRIBAS CORREDORES DE SEGUROS S.A.C.</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>54982</t>
+          <t>E0033255</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>EPS</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -8129,17 +8152,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SPOT LINCE S.A.C.</t>
+          <t>PROYECTOS PRODUCTOS SOLUCIONES SOCIEDAD ANÓNIMA CERRADA</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>E0038807</t>
+          <t>S0344240</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>S.C.T.R. - SALUD</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -8151,17 +8174,17 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ALMA EDUCATIVA SOCIEDAD ANONIMA CERRADA</t>
+          <t>ENERGIAS FIRMES DEL PERU S.A.C. - EFIPE S.A.C.</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>E0036314</t>
+          <t>46781</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>EPS</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -8173,17 +8196,17 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>HELGUERO SOLARI MARIA DEL CARMEN VIRGINIA MATILDE L</t>
+          <t>FLEISHMAN NEGRON JOANNE</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>8936</t>
+          <t>45666</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>SALUD DE ORO</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -8195,17 +8218,17 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>AGUAS  DE  BAYOVAR S.A.C.</t>
+          <t>VELASCO CARRION JORGE ALFREDO</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>00251980</t>
+          <t>1414541</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>VIDA LEY D.L. 688</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -8217,17 +8240,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>REQUEJO CABRERA GERMAN ANTONIO</t>
+          <t>RODRIGO GRAÑA ISMAEL</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>4004004291</t>
+          <t>40724</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -8239,17 +8262,17 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>LOGICORPERU S.A.C.</t>
+          <t>AGUAS  DE  BAYOVAR S.A.C.</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>510573</t>
+          <t>00251980</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>TREC</t>
+          <t>VIDA LEY D.L. 688</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -8261,17 +8284,17 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BUENDIA SARDON JULIO CESAR</t>
+          <t>MARVAL PERU SAC</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>52205</t>
+          <t>1300049736</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>VIDA LEY D.L. 688</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -8283,17 +8306,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>PARDO PACHECO DE KAUFMANN MARIA INES ROSARIO</t>
+          <t>ZERPA MANRIQUE RONIE</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>41296</t>
+          <t>1519922</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>SALUD PREFERENCIAL</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -8305,12 +8328,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>RODRIGO GRAÑA ISMAEL</t>
+          <t>GILES PONCE TERESA</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>40724</t>
+          <t>4011002161</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -8327,17 +8350,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>CARBONEL CAVERO EDGARDO PAUL</t>
+          <t>LOGICORPERU S.A.C.</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>528419</t>
+          <t>510573</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
+          <t>TREC</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -8349,17 +8372,17 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>GILES PONCE TERESA</t>
+          <t>VALLE CRUZADO ARACELI ESTHER</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>4011002161</t>
+          <t>69741</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -8371,12 +8394,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ARRIETA OCAMPO JUAN JOSE DEL CARMEN</t>
+          <t>BUENDIA SARDON JULIO CESAR</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>38832</t>
+          <t>52205</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -8393,17 +8416,17 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>PFLUCKER VALDIVIA CAROLINE</t>
+          <t>HELGUERO SOLARI MARIA DEL CARMEN VIRGINIA MATILDE L</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>15892</t>
+          <t>8936</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>FULL SALUD F F V V</t>
+          <t>SALUD DE ORO</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -8415,17 +8438,17 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>TABOADA DEL CASTILLO PEDRO PABLO</t>
+          <t>LABORATORIO FARMACEUTICO SAN JOAQUIN-ROXFARMA SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>68178</t>
+          <t>1300664792</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>VIDALEYRE</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -8437,17 +8460,17 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>VALLE CRUZADO ARACELI ESTHER</t>
+          <t>ARRIETA OCAMPO JUAN JOSE DEL CARMEN</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>69741</t>
+          <t>38832</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -8459,17 +8482,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>VENEGAS CUEVA EDWIN EDUARDO</t>
+          <t>REQUEJO CABRERA GERMAN ANTONIO</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>1567343</t>
+          <t>4004004291</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -8481,17 +8504,17 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>FLEISHMAN NEGRON JOANNE</t>
+          <t>CONSORCIO EJECUTOR CHANCHAMAYO II</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>45666</t>
+          <t>1300173825</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>VIDA LEY D.L. 688</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -8503,17 +8526,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>MARVAL PERU SAC</t>
+          <t>FLORES CALDERON VALERIA IVETTE</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>1300049736</t>
+          <t>79146</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>VIDA LEY D.L. 688</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -8525,17 +8548,17 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>CONSORCIO EJECUTOR CHANCHAMAYO II</t>
+          <t>TABOADA DEL CASTILLO PEDRO PABLO</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>1300173825</t>
+          <t>68178</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>VIDA LEY D.L. 688</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -8547,17 +8570,17 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>CALDERON CHIRINOS SANDRA IVETTE</t>
+          <t>CARBONEL CAVERO EDGARDO PAUL</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>79358</t>
+          <t>528419</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>DOMICILIARIO RIMAC (EX CASASEGURA)</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -8569,12 +8592,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>VELASCO CARRION JORGE ALFREDO</t>
+          <t>VENEGAS CUEVA EDWIN EDUARDO</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>1414541</t>
+          <t>1567343</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -8591,17 +8614,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>FLORES CALDERON VALERIA IVETTE</t>
+          <t>PFLUCKER VALDIVIA CAROLINE</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>79146</t>
+          <t>15892</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>FULL SALUD F F V V</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -8613,17 +8636,17 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>LABORATORIO FARMACEUTICO SAN JOAQUIN-ROXFARMA SOCIEDAD ANONIMA</t>
+          <t>CALDERON CHIRINOS SANDRA IVETTE</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>1300664792</t>
+          <t>79358</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>VIDALEYRE</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -8635,17 +8658,17 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ZERPA MANRIQUE RONIE</t>
+          <t>PARDO PACHECO DE KAUFMANN MARIA INES ROSARIO</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>1519922</t>
+          <t>41296</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD PREFERENCIAL</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -8679,12 +8702,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>FITESA PERU S.A.C.</t>
+          <t>ACCURATE MANAGEMENT S.A.C</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>42982</t>
+          <t>47194</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -8701,17 +8724,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>COMPUPALACE PERU S.A.</t>
+          <t>FERNANDEZ MARCELO MARUJA NANCY</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>42979</t>
+          <t>1465908</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -8723,17 +8746,17 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>FERNANDEZ MARCELO MARUJA NANCY</t>
+          <t>COMPUPALACE PERU S.A.</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>1465908</t>
+          <t>42979</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -8745,12 +8768,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>MIRANDA AYALA RICARDO ARTURO</t>
+          <t>TRANSLIGRA S.A.C.</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>1576084</t>
+          <t>1573377</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -8767,17 +8790,17 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>TRANSLIGRA S.A.C.</t>
+          <t>SEMINARIO Y CIA S.A.B. S. A.</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>1573377</t>
+          <t>45586</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -8789,17 +8812,17 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>IMPRESSO GRAFICA S A</t>
+          <t>FITESA PERU S.A.C.</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>S0347030</t>
+          <t>42982</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>S.C.T.R. - SALUD</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -8811,17 +8834,17 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>CORPORACION TERMODINAMICA SOCIEDAD ANONIMA</t>
+          <t>IMPRESSO GRAFICA S A</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>1548389</t>
+          <t>P0284999</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>S.C.T.R. - PENSION</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -8833,17 +8856,17 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>CORDOVA RODRIGUEZ DIANA JULISSA</t>
+          <t>UNILEVER ANDINA PERU S.A.</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>1538650</t>
+          <t>30624</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -8855,17 +8878,17 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>UNILEVER ANDINA PERU S.A.</t>
+          <t>ARBULU RIVERA ANA FIORELLA</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>30624</t>
+          <t>7047</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>SALUD DE ORO</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -8877,17 +8900,17 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>IMPRESSO GRAFICA S A</t>
+          <t>CORDOVA RODRIGUEZ DIANA JULISSA</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>P0284999</t>
+          <t>1538650</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>S.C.T.R. - PENSION</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -8899,17 +8922,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SEMINARIO Y CIA S.A.B. S. A.</t>
+          <t>IMPRESSO GRAFICA S A</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>45586</t>
+          <t>S0347030</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>S.C.T.R. - SALUD</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -8921,17 +8944,17 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>PROYECTA INGENIEROS CIVILES S.A.C.</t>
+          <t>CORPORACION TERMODINAMICA SOCIEDAD ANONIMA</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>47846</t>
+          <t>1548389</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -8943,17 +8966,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ARBULU RIVERA ANA FIORELLA</t>
+          <t>MEDINA RAGGIO FERNANDO MARIO</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>7047</t>
+          <t>80438902</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>SALUD DE ORO</t>
+          <t>VIDA LEY D.L. 688</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -8987,17 +9010,17 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ACCURATE MANAGEMENT S.A.C</t>
+          <t>MIRANDA AYALA RICARDO ARTURO</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>47194</t>
+          <t>1576084</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>FORMACION LABORAL</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -9009,17 +9032,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>MEDINA RAGGIO FERNANDO MARIO</t>
+          <t>PROYECTA INGENIEROS CIVILES S.A.C.</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>80438902</t>
+          <t>47846</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>VIDA LEY D.L. 688</t>
+          <t>FORMACION LABORAL</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -9053,17 +9076,17 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>DEL CARPIO CARREÑO PEDRO GUSTAVO</t>
+          <t>REY REY RAFAEL</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>51145</t>
+          <t>15121</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>SALUD RED MEDICA F F V V</t>
+          <t>FULL SALUD F F V V</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -9075,12 +9098,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>OTINIANO ALONSO JUAN CARLOS</t>
+          <t>LAZO TORREBLANCA EDUARDO</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>1593290</t>
+          <t>1547921</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -9097,17 +9120,17 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>LAZO TORREBLANCA EDUARDO</t>
+          <t>DEL CARPIO CARREÑO PEDRO GUSTAVO</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>1547928</t>
+          <t>51145</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>SALUD RED MEDICA F F V V</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -9124,7 +9147,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>1547921</t>
+          <t>1547928</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -9141,17 +9164,17 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>REY REY RAFAEL</t>
+          <t>FLEISHMAN NEGRON JOANNE</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>15121</t>
+          <t>66835</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>FULL SALUD F F V V</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -9163,17 +9186,17 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>FLEISHMAN NEGRON JOANNE</t>
+          <t>OTINIANO ALONSO JUAN CARLOS</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>66835</t>
+          <t>1593290</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -9190,7 +9213,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>41525</t>
+          <t>61423</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -9207,17 +9230,17 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>DESARROLLO SOCIAL INMOBILIARIO S.A.C.</t>
+          <t>SALDAÑA FERIA CARMEN FLOR</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>94616743</t>
+          <t>41525</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>VIDA LEY D.L. 688</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -9229,17 +9252,17 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>AC TOURS S.A.C.</t>
+          <t>DESARROLLO SOCIAL INMOBILIARIO S.A.C.</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>4012001816</t>
+          <t>94616743</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>SALUD PREFERENCIAL</t>
+          <t>VIDA LEY D.L. 688</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -9251,17 +9274,17 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>SALDAÑA FERIA CARMEN FLOR</t>
+          <t>SOLUCIONES EMPRESARIALES CONTRA LA POBREZA</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>61423</t>
+          <t>37478</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>SALUD PREFERENCIAL</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -9273,12 +9296,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SOLUCIONES EMPRESARIALES CONTRA LA POBREZA</t>
+          <t>AC TOURS S.A.C.</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>37478</t>
+          <t>4012001816</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -9295,17 +9318,17 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SAAVEDRA WERNER JUAN DIEGO</t>
+          <t>MENDOZA CASALINO ANTONIO JOSE</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>37765</t>
+          <t>74699</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>SALUD RED PREFERENTE</t>
+          <t>SALUD RED MÉDICA</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -9339,17 +9362,17 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>MENDOZA CASALINO ANTONIO JOSE</t>
+          <t>SAAVEDRA WERNER JUAN DIEGO</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>74699</t>
+          <t>37765</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>SALUD RED MÉDICA</t>
+          <t>SALUD RED PREFERENTE</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -9559,17 +9582,17 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>INVERSIONES TINTA NEGRA SAC</t>
+          <t>JORLE CONSULTORES S.A.C.</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>518391</t>
+          <t>52481</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>WEB VEHICULOS</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -9581,17 +9604,17 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>JORLE CONSULTORES S.A.C.</t>
+          <t>INVERSIONES TINTA NEGRA SAC</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>52481</t>
+          <t>518391</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>WEB VEHICULOS</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -9735,12 +9758,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>INVERSIONES DIVERSAS S A</t>
+          <t>GRAHAM AYLLON CARMEN MILAGROS</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>1481664</t>
+          <t>1591977</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -9779,12 +9802,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>GRAHAM AYLLON CARMEN MILAGROS</t>
+          <t>INVERSIONES DIVERSAS S A</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>1591977</t>
+          <t>1481664</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -9850,7 +9873,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>53783</t>
+          <t>53778</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -9867,17 +9890,17 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
+          <t>PINASCO DELLEPIANE ANGELO ALFREDO</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>53776</t>
+          <t>38142</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>FULLSALUD</t>
+          <t>SALUD PREFERENCIAL</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -9889,12 +9912,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
+          <t>CUETO SACO ANTONIO ALBERTO</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>53775</t>
+          <t>52472</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -9916,7 +9939,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>53777</t>
+          <t>53776</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -9933,12 +9956,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>CUETO SACO ANTONIO ALBERTO</t>
+          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>52472</t>
+          <t>53783</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -9955,17 +9978,17 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>PINASCO DELLEPIANE ANGELO ALFREDO</t>
+          <t>XIAOMI TECHNOLOGIES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>38142</t>
+          <t>53777</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>SALUD PREFERENCIAL</t>
+          <t>FULLSALUD</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -9982,7 +10005,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>53778</t>
+          <t>53775</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -10053,8 +10076,8 @@
   </sheetPr>
   <dimension ref="A1:D465"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
